--- a/430_コアデータモデル/438-1_コアデータモデル_コード一覧.xlsx
+++ b/430_コアデータモデル/438-1_コアデータモデル_コード一覧.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{73E9ACDB-381E-448D-AF11-873860A4447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E74C140-F51D-45C9-809A-09CD452FC267}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{73E9ACDB-381E-448D-AF11-873860A4447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FD3609E-7285-4A98-B8B5-0C0899911CBA}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10457" xr2:uid="{36A2C3B1-FF35-492E-A894-7064C941A5EA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36A2C3B1-FF35-492E-A894-7064C941A5EA}"/>
   </bookViews>
   <sheets>
     <sheet name="コード一覧" sheetId="10" r:id="rId1"/>
@@ -2202,7 +2202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2447,9 +2447,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2487,7 +2487,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2593,7 +2593,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2735,7 +2735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2750,64 +2750,64 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.350000000000001"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="19.3" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="39.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="41.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="113.125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.125" style="3"/>
+    <col min="1" max="1" width="8.2109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.35546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="39.2109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.2109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.35546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="41.35546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="113.140625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="29.65">
+    <row r="1" spans="2:7" ht="29.6" x14ac:dyDescent="0.65">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
@@ -2831,27 +2831,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.65">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.65">
       <c r="C17" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.65">
       <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="57.95">
+    <row r="20" spans="1:7" ht="57.9" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" ht="38.65">
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="38.6" x14ac:dyDescent="0.65">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1">
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" s="6" customFormat="1">
+    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" s="6" customFormat="1">
+    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" s="6" customFormat="1">
+    <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" s="6" customFormat="1">
+    <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1">
+    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" s="6" customFormat="1">
+    <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" s="6" customFormat="1">
+    <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" s="6" customFormat="1">
+    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1">
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -3031,7 +3031,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" s="6" customFormat="1">
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" s="6" customFormat="1">
+    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" s="6" customFormat="1">
+    <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" s="6" customFormat="1">
+    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A35" s="4">
         <v>4</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="6" customFormat="1">
+    <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" s="6" customFormat="1">
+    <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3117,7 +3117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="6" customFormat="1">
+    <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3132,7 +3132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3147,7 +3147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3162,7 +3162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A42" s="4">
         <v>5</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3209,7 +3209,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="6" customFormat="1" ht="38.65">
+    <row r="44" spans="1:7" s="6" customFormat="1" ht="38.6" x14ac:dyDescent="0.65">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3224,7 +3224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="6" customFormat="1">
+    <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3239,7 +3239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="6" customFormat="1">
+    <row r="46" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3254,7 +3254,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="6" customFormat="1">
+    <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3269,7 +3269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="6" customFormat="1">
+    <row r="48" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3284,7 +3284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="6" customFormat="1">
+    <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3299,7 +3299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="6" customFormat="1" ht="38.65">
+    <row r="50" spans="1:7" s="6" customFormat="1" ht="38.6" x14ac:dyDescent="0.65">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3314,7 +3314,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="6" customFormat="1" ht="38.65">
+    <row r="51" spans="1:7" s="6" customFormat="1" ht="38.6" x14ac:dyDescent="0.65">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3329,7 +3329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="6" customFormat="1" ht="38.65">
+    <row r="52" spans="1:7" s="6" customFormat="1" ht="38.6" x14ac:dyDescent="0.65">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3344,7 +3344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="6" customFormat="1" ht="38.65">
+    <row r="53" spans="1:7" s="6" customFormat="1" ht="38.6" x14ac:dyDescent="0.65">
       <c r="A53" s="4">
         <v>6</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="6" customFormat="1">
+    <row r="54" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" s="6" customFormat="1">
+    <row r="55" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" s="6" customFormat="1">
+    <row r="56" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" s="6" customFormat="1">
+    <row r="57" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" s="6" customFormat="1">
+    <row r="58" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" s="6" customFormat="1">
+    <row r="59" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" s="6" customFormat="1">
+    <row r="60" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" s="6" customFormat="1">
+    <row r="61" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" s="6" customFormat="1">
+    <row r="62" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" s="6" customFormat="1">
+    <row r="63" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" s="6" customFormat="1">
+    <row r="64" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" s="6" customFormat="1">
+    <row r="65" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" s="6" customFormat="1">
+    <row r="66" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" s="6" customFormat="1">
+    <row r="67" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" s="6" customFormat="1">
+    <row r="68" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" s="6" customFormat="1">
+    <row r="69" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" s="6" customFormat="1">
+    <row r="70" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" s="6" customFormat="1">
+    <row r="71" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" s="6" customFormat="1">
+    <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" s="6" customFormat="1">
+    <row r="73" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" s="6" customFormat="1">
+    <row r="74" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" s="6" customFormat="1">
+    <row r="75" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" s="6" customFormat="1">
+    <row r="76" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" s="6" customFormat="1">
+    <row r="77" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" s="6" customFormat="1">
+    <row r="78" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" s="6" customFormat="1">
+    <row r="79" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" s="6" customFormat="1">
+    <row r="80" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" s="6" customFormat="1">
+    <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" s="6" customFormat="1">
+    <row r="82" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" s="6" customFormat="1">
+    <row r="83" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" s="6" customFormat="1">
+    <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" s="6" customFormat="1">
+    <row r="85" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" s="6" customFormat="1">
+    <row r="86" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" s="6" customFormat="1">
+    <row r="87" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" s="6" customFormat="1">
+    <row r="88" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" s="6" customFormat="1">
+    <row r="89" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" s="6" customFormat="1">
+    <row r="90" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" s="6" customFormat="1">
+    <row r="91" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" s="6" customFormat="1">
+    <row r="92" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" s="6" customFormat="1">
+    <row r="93" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" s="6" customFormat="1">
+    <row r="94" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" s="6" customFormat="1">
+    <row r="95" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" s="6" customFormat="1">
+    <row r="96" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" s="6" customFormat="1">
+    <row r="97" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" s="6" customFormat="1">
+    <row r="98" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" s="6" customFormat="1">
+    <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" s="6" customFormat="1">
+    <row r="100" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" s="6" customFormat="1">
+    <row r="101" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" s="6" customFormat="1">
+    <row r="102" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" s="6" customFormat="1">
+    <row r="103" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" s="6" customFormat="1">
+    <row r="104" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" s="6" customFormat="1">
+    <row r="105" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" s="6" customFormat="1">
+    <row r="106" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" s="6" customFormat="1">
+    <row r="107" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" s="6" customFormat="1">
+    <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" s="6" customFormat="1">
+    <row r="109" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" s="6" customFormat="1">
+    <row r="110" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" s="6" customFormat="1">
+    <row r="111" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" s="6" customFormat="1">
+    <row r="112" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" s="6" customFormat="1">
+    <row r="113" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" s="6" customFormat="1">
+    <row r="114" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" s="6" customFormat="1">
+    <row r="115" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" s="6" customFormat="1">
+    <row r="116" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" s="6" customFormat="1">
+    <row r="117" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" s="6" customFormat="1">
+    <row r="118" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" s="6" customFormat="1">
+    <row r="119" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" s="6" customFormat="1">
+    <row r="120" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" s="6" customFormat="1">
+    <row r="121" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" s="6" customFormat="1">
+    <row r="122" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" s="6" customFormat="1">
+    <row r="123" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" s="6" customFormat="1">
+    <row r="124" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" s="6" customFormat="1">
+    <row r="125" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" s="6" customFormat="1">
+    <row r="126" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" s="6" customFormat="1">
+    <row r="127" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" s="6" customFormat="1">
+    <row r="128" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" s="6" customFormat="1">
+    <row r="129" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" s="6" customFormat="1">
+    <row r="130" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" s="6" customFormat="1">
+    <row r="131" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" s="6" customFormat="1" ht="38.65">
+    <row r="132" spans="1:7" s="6" customFormat="1" ht="38.6" x14ac:dyDescent="0.65">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" s="6" customFormat="1">
+    <row r="133" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" s="6" customFormat="1">
+    <row r="134" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" s="6" customFormat="1">
+    <row r="135" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" s="6" customFormat="1">
+    <row r="136" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" s="6" customFormat="1">
+    <row r="137" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" s="6" customFormat="1">
+    <row r="138" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" s="6" customFormat="1">
+    <row r="139" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" s="6" customFormat="1">
+    <row r="140" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" s="6" customFormat="1">
+    <row r="141" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" s="6" customFormat="1">
+    <row r="142" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" s="6" customFormat="1">
+    <row r="143" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" s="6" customFormat="1">
+    <row r="144" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" s="6" customFormat="1">
+    <row r="145" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" s="6" customFormat="1">
+    <row r="146" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" s="6" customFormat="1">
+    <row r="147" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" s="6" customFormat="1">
+    <row r="148" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" s="6" customFormat="1">
+    <row r="149" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" s="6" customFormat="1">
+    <row r="150" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" s="6" customFormat="1">
+    <row r="151" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" s="6" customFormat="1">
+    <row r="152" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" s="6" customFormat="1">
+    <row r="153" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" s="6" customFormat="1">
+    <row r="154" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" s="6" customFormat="1">
+    <row r="155" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" s="6" customFormat="1">
+    <row r="156" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" s="6" customFormat="1">
+    <row r="157" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" s="6" customFormat="1">
+    <row r="158" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" s="6" customFormat="1">
+    <row r="159" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" s="6" customFormat="1">
+    <row r="160" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:7" s="6" customFormat="1">
+    <row r="161" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:7" s="6" customFormat="1">
+    <row r="162" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:7" s="6" customFormat="1">
+    <row r="163" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="1:7" s="6" customFormat="1">
+    <row r="164" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" s="6" customFormat="1">
+    <row r="165" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:7" s="6" customFormat="1">
+    <row r="166" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:7" s="6" customFormat="1">
+    <row r="167" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:7" s="6" customFormat="1">
+    <row r="168" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" s="6" customFormat="1">
+    <row r="169" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:7" s="6" customFormat="1">
+    <row r="170" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" s="6" customFormat="1">
+    <row r="171" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" s="6" customFormat="1">
+    <row r="172" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:7" s="6" customFormat="1">
+    <row r="173" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" s="6" customFormat="1">
+    <row r="174" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:7" s="6" customFormat="1">
+    <row r="175" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:7" s="6" customFormat="1">
+    <row r="176" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" s="6" customFormat="1">
+    <row r="177" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" s="6" customFormat="1">
+    <row r="178" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" s="6" customFormat="1">
+    <row r="179" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" s="6" customFormat="1" ht="38.65">
+    <row r="180" spans="1:7" s="6" customFormat="1" ht="38.6" x14ac:dyDescent="0.65">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" s="6" customFormat="1">
+    <row r="181" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" s="6" customFormat="1">
+    <row r="182" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" s="6" customFormat="1">
+    <row r="183" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" s="6" customFormat="1">
+    <row r="184" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" s="6" customFormat="1">
+    <row r="185" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" s="6" customFormat="1">
+    <row r="186" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" s="6" customFormat="1">
+    <row r="187" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" s="6" customFormat="1">
+    <row r="188" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" s="6" customFormat="1">
+    <row r="189" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" s="6" customFormat="1">
+    <row r="190" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" s="6" customFormat="1">
+    <row r="191" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" s="6" customFormat="1">
+    <row r="192" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" s="6" customFormat="1">
+    <row r="193" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="1:7" s="6" customFormat="1">
+    <row r="194" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:7" s="6" customFormat="1">
+    <row r="195" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:7" s="6" customFormat="1">
+    <row r="196" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" s="6" customFormat="1">
+    <row r="197" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:7" s="6" customFormat="1">
+    <row r="198" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:7" s="6" customFormat="1">
+    <row r="199" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:7" s="6" customFormat="1">
+    <row r="200" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:7" s="6" customFormat="1">
+    <row r="201" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:7" s="6" customFormat="1">
+    <row r="202" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:7" s="6" customFormat="1">
+    <row r="203" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:7" s="6" customFormat="1">
+    <row r="204" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:7" s="6" customFormat="1">
+    <row r="205" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:7" s="6" customFormat="1">
+    <row r="206" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:7" s="6" customFormat="1">
+    <row r="207" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:7" s="6" customFormat="1">
+    <row r="208" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:7" s="6" customFormat="1">
+    <row r="209" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:7" s="6" customFormat="1">
+    <row r="210" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:7" s="6" customFormat="1">
+    <row r="211" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" s="6" customFormat="1">
+    <row r="212" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:7" s="6" customFormat="1">
+    <row r="213" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:7" s="6" customFormat="1">
+    <row r="214" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:7" s="6" customFormat="1">
+    <row r="215" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:7" s="6" customFormat="1">
+    <row r="216" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:7" s="6" customFormat="1">
+    <row r="217" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:7" s="6" customFormat="1">
+    <row r="218" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:7" s="6" customFormat="1">
+    <row r="219" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:7" s="6" customFormat="1">
+    <row r="220" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -5534,7 +5534,7 @@
       </c>
       <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:7" s="6" customFormat="1">
+    <row r="221" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:7" s="6" customFormat="1">
+    <row r="222" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:7" s="6" customFormat="1">
+    <row r="223" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7" s="6" customFormat="1">
+    <row r="224" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="G224" s="5"/>
     </row>
-    <row r="225" spans="1:7" s="6" customFormat="1">
+    <row r="225" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="G225" s="5"/>
     </row>
-    <row r="226" spans="1:7" s="6" customFormat="1">
+    <row r="226" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="G226" s="5"/>
     </row>
-    <row r="227" spans="1:7" s="6" customFormat="1">
+    <row r="227" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="G227" s="5"/>
     </row>
-    <row r="228" spans="1:7" s="6" customFormat="1">
+    <row r="228" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7" s="6" customFormat="1">
+    <row r="229" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="G229" s="5"/>
     </row>
-    <row r="230" spans="1:7" s="6" customFormat="1">
+    <row r="230" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="G230" s="5"/>
     </row>
-    <row r="231" spans="1:7" s="6" customFormat="1">
+    <row r="231" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="G231" s="5"/>
     </row>
-    <row r="232" spans="1:7" s="6" customFormat="1">
+    <row r="232" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="G232" s="5"/>
     </row>
-    <row r="233" spans="1:7" s="6" customFormat="1">
+    <row r="233" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="G233" s="5"/>
     </row>
-    <row r="234" spans="1:7" s="6" customFormat="1">
+    <row r="234" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7" s="6" customFormat="1">
+    <row r="235" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="G235" s="5"/>
     </row>
-    <row r="236" spans="1:7" s="6" customFormat="1">
+    <row r="236" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="G236" s="5"/>
     </row>
-    <row r="237" spans="1:7" s="6" customFormat="1">
+    <row r="237" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="G237" s="5"/>
     </row>
-    <row r="238" spans="1:7" s="6" customFormat="1">
+    <row r="238" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="G238" s="5"/>
     </row>
-    <row r="239" spans="1:7" s="6" customFormat="1">
+    <row r="239" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="G239" s="5"/>
     </row>
-    <row r="240" spans="1:7" s="6" customFormat="1">
+    <row r="240" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="G240" s="5"/>
     </row>
-    <row r="241" spans="1:7" s="6" customFormat="1">
+    <row r="241" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7" s="6" customFormat="1">
+    <row r="242" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="G242" s="5"/>
     </row>
-    <row r="243" spans="1:7" s="6" customFormat="1">
+    <row r="243" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="G243" s="5"/>
     </row>
-    <row r="244" spans="1:7" s="6" customFormat="1">
+    <row r="244" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="G244" s="5"/>
     </row>
-    <row r="245" spans="1:7" s="6" customFormat="1">
+    <row r="245" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="G245" s="5"/>
     </row>
-    <row r="246" spans="1:7" s="6" customFormat="1">
+    <row r="246" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" s="6" customFormat="1">
+    <row r="247" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" s="6" customFormat="1">
+    <row r="248" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -5898,7 +5898,7 @@
       </c>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:7" s="6" customFormat="1" ht="38.65">
+    <row r="249" spans="1:7" s="6" customFormat="1" ht="38.6" x14ac:dyDescent="0.65">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" s="6" customFormat="1">
+    <row r="250" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" s="6" customFormat="1">
+    <row r="251" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" s="6" customFormat="1">
+    <row r="252" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" s="6" customFormat="1">
+    <row r="253" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" s="6" customFormat="1">
+    <row r="254" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" s="6" customFormat="1">
+    <row r="255" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" s="6" customFormat="1">
+    <row r="256" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -6002,7 +6002,7 @@
       </c>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7" s="6" customFormat="1">
+    <row r="257" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7" s="6" customFormat="1">
+    <row r="258" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -6028,7 +6028,7 @@
       </c>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" s="6" customFormat="1">
+    <row r="259" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7" s="6" customFormat="1">
+    <row r="260" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" s="6" customFormat="1">
+    <row r="261" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" s="6" customFormat="1">
+    <row r="262" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7" s="6" customFormat="1">
+    <row r="263" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" s="6" customFormat="1">
+    <row r="264" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7" s="6" customFormat="1">
+    <row r="265" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" s="6" customFormat="1">
+    <row r="266" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" s="6" customFormat="1">
+    <row r="267" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" s="6" customFormat="1">
+    <row r="268" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" s="6" customFormat="1">
+    <row r="269" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" s="6" customFormat="1">
+    <row r="270" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" s="6" customFormat="1">
+    <row r="271" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" s="6" customFormat="1">
+    <row r="272" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7" s="6" customFormat="1">
+    <row r="273" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" s="6" customFormat="1">
+    <row r="274" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7" s="6" customFormat="1">
+    <row r="275" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7" s="6" customFormat="1">
+    <row r="276" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7" s="6" customFormat="1">
+    <row r="277" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7" s="6" customFormat="1">
+    <row r="278" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" s="6" customFormat="1">
+    <row r="279" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" s="6" customFormat="1">
+    <row r="280" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7" s="6" customFormat="1">
+    <row r="281" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" s="6" customFormat="1">
+    <row r="282" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7" s="6" customFormat="1">
+    <row r="283" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" s="6" customFormat="1">
+    <row r="284" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" s="6" customFormat="1">
+    <row r="285" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" s="6" customFormat="1">
+    <row r="286" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" s="6" customFormat="1">
+    <row r="287" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" s="6" customFormat="1">
+    <row r="288" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7" s="6" customFormat="1">
+    <row r="289" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" s="6" customFormat="1">
+    <row r="290" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7" s="6" customFormat="1">
+    <row r="291" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" s="6" customFormat="1">
+    <row r="292" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="G292" s="5"/>
     </row>
-    <row r="293" spans="1:7" s="6" customFormat="1">
+    <row r="293" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="G293" s="5"/>
     </row>
-    <row r="294" spans="1:7" s="6" customFormat="1">
+    <row r="294" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="G294" s="5"/>
     </row>
-    <row r="295" spans="1:7" s="6" customFormat="1">
+    <row r="295" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="G295" s="5"/>
     </row>
-    <row r="296" spans="1:7" s="6" customFormat="1">
+    <row r="296" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="G296" s="5"/>
     </row>
-    <row r="297" spans="1:7" s="6" customFormat="1">
+    <row r="297" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="G297" s="5"/>
     </row>
-    <row r="298" spans="1:7" s="6" customFormat="1">
+    <row r="298" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="G298" s="5"/>
     </row>
-    <row r="299" spans="1:7" s="6" customFormat="1">
+    <row r="299" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" s="6" customFormat="1">
+    <row r="300" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -6582,21 +6582,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D4BA49431D4D9249A6509499E059C03E" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ab603acd520aec003329a8cc5e5a3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b8676f7c-cd37-452c-a4f6-258f9e9fd2a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2731dd5c1c8e876b3faee75002f54a14" ns2:_="">
     <xsd:import namespace="b8676f7c-cd37-452c-a4f6-258f9e9fd2a4"/>
@@ -6740,14 +6725,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{398BD074-CB67-4E09-9226-B300CE18894A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71808DD7-01CE-4DC2-A7DF-81941ECDE13A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30524A4C-8F70-4D11-9CF0-3059FABFEDC4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A81A0C-8E0E-4E19-864E-B51D78ADC93D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{611C451C-573F-4125-9E55-7756B1A1B46B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF48CCF-2E87-49F9-84C8-09D208DAACD6}"/>
 </file>